--- a/docs/mcode/shr-core-BodyHeight.xlsx
+++ b/docs/mcode/shr-core-BodyHeight.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="475">
   <si>
     <t>Path</t>
   </si>
@@ -204,19 +204,98 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.meta.extension</t>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://tools.ietf.org/html/bcp47</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
   </si>
   <si>
     <t>extensions
@@ -230,367 +309,209 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>precondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Precondition-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A description of the conditions or context of an observation, for example, under sedation, fasting or post-exercise. A qualifier cannot modify the measurement type; for example, a fasting blood sugar is still a blood sugar.</t>
+  </si>
+  <si>
+    <t>Observation.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Observation.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Precondition-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Observation.extension.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyHeightPreconditionVS</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>bodyposition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-BodyPosition-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The position or physical attitude of the body.</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Unique Id for this particular observation</t>
+  </si>
+  <si>
+    <t>A unique identifier for the simple observation instance.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>OBX.21</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.  This is used  for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Observation.code.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.category.extension</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Observation.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Observation.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Observation.meta.security</t>
+    <t>Observation.category.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding {[]} {[]}
 </t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://tools.ietf.org/html/bcp47</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>precondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Precondition-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A description of the conditions or context of an observation, for example, under sedation, fasting or post-exercise. A qualifier cannot modify the measurement type; for example, a fasting blood sugar is still a blood sugar.</t>
-  </si>
-  <si>
-    <t>Observation.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Observation.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Precondition-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Observation.extension.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyHeightPreconditionVS</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>bodyposition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-BodyPosition-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The position or physical attitude of the body.</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Unique Id for this particular observation</t>
-  </si>
-  <si>
-    <t>A unique identifier for the simple observation instance.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>OBX.21</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.  This is used  for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Observation.code.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Observation.category.id</t>
-  </si>
-  <si>
-    <t>Observation.category.extension</t>
-  </si>
-  <si>
-    <t>Observation.category.coding</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -909,6 +830,10 @@
     <t>Observation.issued</t>
   </si>
   <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
     <t>Date/Time this was made available</t>
   </si>
   <si>
@@ -1128,7 +1053,7 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/QuantitativeResultInterpretationVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/QuantitativeResultInterpretationVS</t>
   </si>
   <si>
     <t>OBX-8</t>
@@ -1173,7 +1098,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>OBX-20</t>
@@ -1182,18 +1107,6 @@
     <t>targetSiteCode</t>
   </si>
   <si>
-    <t>Observation.bodySite.id</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.text</t>
-  </si>
-  <si>
     <t>Observation.method</t>
   </si>
   <si>
@@ -1209,7 +1122,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyHeightLengthMethodVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyHeightLengthMethodVS</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1720,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM106"/>
+  <dimension ref="A1:AM95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1752,8 +1665,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.6484375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="52.97265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.84375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -2214,21 +2127,23 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -2291,7 +2206,7 @@
         <v>42</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>42</v>
@@ -2299,18 +2214,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -2357,13 +2272,13 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
@@ -2395,7 +2310,7 @@
         <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>42</v>
@@ -2403,11 +2318,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2423,19 +2338,19 @@
         <v>42</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2490,7 +2405,7 @@
       </c>
       <c r="AG7" s="2"/>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2499,7 +2414,7 @@
         <v>42</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>42</v>
@@ -2507,18 +2422,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2527,19 +2442,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2603,7 +2518,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>42</v>
@@ -2611,11 +2526,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2631,19 +2546,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2681,16 +2596,14 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
@@ -2707,7 +2620,7 @@
         <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>42</v>
@@ -2715,9 +2628,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2735,20 +2650,16 @@
         <v>42</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -2773,13 +2684,13 @@
         <v>42</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>42</v>
@@ -2796,11 +2707,15 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2819,7 +2734,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2830,7 +2745,7 @@
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>42</v>
@@ -2839,20 +2754,18 @@
         <v>42</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -2877,10 +2790,10 @@
         <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="s" s="2">
         <v>42</v>
@@ -2900,11 +2813,15 @@
       <c r="AD11" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2915,7 +2832,7 @@
         <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>42</v>
@@ -2923,7 +2840,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2934,29 +2851,27 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>42</v>
@@ -3004,11 +2919,15 @@
       <c r="AD12" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE12" s="2"/>
+      <c r="AE12" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG12" s="2"/>
+      <c r="AG12" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH12" t="s" s="2">
         <v>42</v>
       </c>
@@ -3027,7 +2946,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3035,7 +2954,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>51</v>
@@ -3050,24 +2969,22 @@
         <v>42</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>42</v>
@@ -3085,13 +3002,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -3108,11 +3025,15 @@
       <c r="AD13" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE13" s="2"/>
+      <c r="AE13" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="AF13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG13" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH13" t="s" s="2">
         <v>42</v>
       </c>
@@ -3123,7 +3044,7 @@
         <v>42</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>42</v>
@@ -3131,15 +3052,15 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>51</v>
@@ -3154,17 +3075,15 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>42</v>
@@ -3189,13 +3108,11 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -3212,13 +3129,17 @@
       <c r="AD14" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE14" s="2"/>
+      <c r="AE14" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG14" s="2"/>
+      <c r="AG14" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH14" t="s" s="2">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>42</v>
@@ -3227,7 +3148,7 @@
         <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>42</v>
@@ -3235,18 +3156,20 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="C15" t="s" s="2">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>42</v>
@@ -3258,17 +3181,13 @@
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K15" t="s" s="2">
         <v>122</v>
       </c>
+      <c r="K15" s="2"/>
       <c r="L15" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>124</v>
-      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>42</v>
@@ -3316,11 +3235,15 @@
       <c r="AD15" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE15" s="2"/>
+      <c r="AE15" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG15" s="2"/>
+      <c r="AG15" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH15" t="s" s="2">
         <v>42</v>
       </c>
@@ -3331,7 +3254,7 @@
         <v>42</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>42</v>
@@ -3339,11 +3262,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3356,22 +3279,22 @@
         <v>42</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3409,14 +3332,16 @@
         <v>42</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AE16" s="2"/>
       <c r="AF16" t="s" s="2">
@@ -3433,7 +3358,7 @@
         <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>42</v>
@@ -3441,11 +3366,9 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3466,14 +3389,18 @@
         <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3520,15 +3447,11 @@
       <c r="AD17" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE17" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="AE17" s="2"/>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG17" s="2"/>
       <c r="AH17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3536,18 +3459,18 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3555,7 +3478,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>51</v>
@@ -3564,22 +3487,24 @@
         <v>42</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3603,13 +3528,13 @@
         <v>42</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>42</v>
@@ -3626,15 +3551,11 @@
       <c r="AD18" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE18" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="AE18" s="2"/>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG18" s="2"/>
       <c r="AH18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3642,18 +3563,18 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>42</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3661,10 +3582,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
@@ -3676,15 +3597,17 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
@@ -3709,13 +3632,13 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
@@ -3733,13 +3656,13 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
@@ -3751,15 +3674,15 @@
         <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>42</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3767,7 +3690,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>51</v>
@@ -3782,13 +3705,13 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3797,7 +3720,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>42</v>
@@ -3838,15 +3761,11 @@
       <c r="AD20" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE20" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG20" s="2"/>
       <c r="AH20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3857,7 +3776,7 @@
         <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>42</v>
@@ -3865,18 +3784,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>42</v>
@@ -3888,15 +3807,17 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3921,11 +3842,13 @@
         <v>42</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>42</v>
@@ -3942,15 +3865,11 @@
       <c r="AD21" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE21" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG21" s="2"/>
       <c r="AH21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3961,7 +3880,7 @@
         <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>42</v>
@@ -3969,20 +3888,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>42</v>
@@ -3991,17 +3908,23 @@
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K22" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="L22" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>42</v>
       </c>
@@ -4037,26 +3960,20 @@
         <v>42</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG22" s="2"/>
       <c r="AH22" t="s" s="2">
         <v>42</v>
       </c>
@@ -4064,10 +3981,10 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
@@ -4075,40 +3992,38 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="C23" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I23" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="K23" s="2"/>
       <c r="L23" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -4171,7 +4086,7 @@
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -4179,7 +4094,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4190,7 +4105,7 @@
         <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>42</v>
@@ -4202,18 +4117,16 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>42</v>
       </c>
@@ -4272,52 +4185,52 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>164</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4341,13 +4254,13 @@
         <v>42</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>42</v>
@@ -4376,18 +4289,18 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>173</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4395,7 +4308,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>51</v>
@@ -4407,27 +4320,29 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>42</v>
@@ -4445,13 +4360,13 @@
         <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -4468,15 +4383,11 @@
       <c r="AD26" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE26" t="s" s="2">
-        <v>174</v>
-      </c>
+      <c r="AE26" s="2"/>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG26" s="2"/>
       <c r="AH26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4484,18 +4395,18 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4515,18 +4426,20 @@
         <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
@@ -4586,10 +4499,10 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -4601,14 +4514,14 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4617,27 +4530,27 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>67</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>42</v>
@@ -4690,10 +4603,10 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>42</v>
@@ -4701,7 +4614,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4709,10 +4622,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
@@ -4724,19 +4637,17 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4773,14 +4684,16 @@
         <v>42</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AB29" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AE29" s="2"/>
       <c r="AF29" t="s" s="2">
@@ -4794,10 +4707,10 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
@@ -4805,17 +4718,15 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>51</v>
@@ -4830,14 +4741,20 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K30" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="L30" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4896,10 +4813,10 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
@@ -4907,7 +4824,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4927,19 +4844,23 @@
         <v>42</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4998,52 +4919,52 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
@@ -5067,13 +4988,13 @@
         <v>42</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>42</v>
@@ -5102,18 +5023,18 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>42</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5133,29 +5054,25 @@
         <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>42</v>
@@ -5208,10 +5125,10 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -5219,18 +5136,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
@@ -5239,19 +5156,19 @@
         <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5312,10 +5229,10 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -5323,7 +5240,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5331,10 +5248,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
@@ -5346,24 +5263,26 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="N35" t="s" s="2">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>42</v>
@@ -5393,16 +5312,14 @@
         <v>42</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AE35" s="2"/>
       <c r="AF35" t="s" s="2">
@@ -5416,10 +5333,10 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5427,15 +5344,17 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="C36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>51</v>
@@ -5450,18 +5369,16 @@
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>219</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5520,10 +5437,10 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>42</v>
@@ -5531,7 +5448,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5551,23 +5468,19 @@
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>223</v>
+        <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>224</v>
+        <v>102</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5626,10 +5539,10 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
@@ -5637,18 +5550,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5657,23 +5570,21 @@
         <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>231</v>
+        <v>92</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5732,10 +5643,10 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5743,7 +5654,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5751,7 +5662,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>51</v>
@@ -5766,24 +5677,26 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>42</v>
@@ -5801,13 +5714,13 @@
         <v>42</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>42</v>
@@ -5836,18 +5749,18 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>245</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5867,18 +5780,20 @@
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5938,10 +5853,10 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5949,18 +5864,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -5969,27 +5884,27 @@
         <v>42</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>67</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>42</v>
@@ -6042,10 +5957,10 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
@@ -6053,7 +5968,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6061,10 +5976,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F42" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
@@ -6076,19 +5991,17 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -6125,14 +6038,16 @@
         <v>42</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AB42" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AE42" s="2"/>
       <c r="AF42" t="s" s="2">
@@ -6146,10 +6061,10 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -6157,17 +6072,15 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>51</v>
@@ -6182,16 +6095,20 @@
         <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6250,10 +6167,10 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
@@ -6261,7 +6178,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6281,19 +6198,23 @@
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6352,52 +6273,54 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>69</v>
+        <v>238</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6444,11 +6367,15 @@
       <c r="AD45" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE45" s="2"/>
+      <c r="AE45" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG45" s="2"/>
+      <c r="AG45" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6456,18 +6383,18 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>42</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6487,29 +6414,27 @@
         <v>42</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>42</v>
@@ -6562,18 +6487,18 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6587,7 +6512,7 @@
         <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>42</v>
@@ -6596,18 +6521,20 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>134</v>
+        <v>253</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6666,18 +6593,18 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>42</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6700,24 +6627,24 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>42</v>
@@ -6770,18 +6697,18 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>42</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6792,7 +6719,7 @@
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>42</v>
@@ -6804,17 +6731,17 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>134</v>
+        <v>270</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -6874,18 +6801,18 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>42</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6899,7 +6826,7 @@
         <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>42</v>
@@ -6908,20 +6835,16 @@
         <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6968,11 +6891,15 @@
       <c r="AD50" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE50" s="2"/>
+      <c r="AE50" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG50" s="2"/>
+      <c r="AG50" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6980,10 +6907,10 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6991,7 +6918,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7011,23 +6938,19 @@
         <v>42</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
@@ -7086,10 +7009,10 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -7097,18 +7020,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -7117,23 +7040,21 @@
         <v>42</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>262</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>263</v>
+        <v>92</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>264</v>
+        <v>156</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>42</v>
       </c>
@@ -7180,15 +7101,11 @@
       <c r="AD52" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE52" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="AE52" s="2"/>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG52" s="2"/>
       <c r="AH52" t="s" s="2">
         <v>42</v>
       </c>
@@ -7196,18 +7113,18 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>267</v>
+        <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>268</v>
+        <v>154</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>269</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7227,20 +7144,22 @@
         <v>42</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="N53" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7300,18 +7219,18 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>277</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7328,30 +7247,32 @@
         <v>42</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>279</v>
+        <v>67</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="Q54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7371,13 +7292,13 @@
         <v>42</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>42</v>
+        <v>298</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>42</v>
@@ -7406,18 +7327,18 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7440,18 +7361,18 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7510,18 +7431,18 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>293</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7532,7 +7453,7 @@
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
@@ -7544,24 +7465,24 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>295</v>
+        <v>62</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>42</v>
+        <v>311</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>42</v>
@@ -7608,24 +7529,24 @@
       </c>
       <c r="AG56" s="2"/>
       <c r="AH56" t="s" s="2">
-        <v>42</v>
+        <v>312</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>301</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7648,22 +7569,26 @@
         <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>303</v>
+        <v>67</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>42</v>
+        <v>319</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>42</v>
@@ -7704,26 +7629,22 @@
       <c r="AD57" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE57" t="s" s="2">
+      <c r="AE57" s="2"/>
+      <c r="AF57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG57" s="2"/>
+      <c r="AH57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AF57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="AK57" t="s" s="2">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7731,7 +7652,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7754,16 +7675,20 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>62</v>
+        <v>322</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
       </c>
@@ -7787,13 +7712,11 @@
         <v>42</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>42</v>
+        <v>326</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7816,16 +7739,16 @@
       </c>
       <c r="AG58" s="2"/>
       <c r="AH58" t="s" s="2">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>64</v>
+        <v>328</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7833,18 +7756,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>66</v>
+        <v>330</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>42</v>
@@ -7856,18 +7779,18 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>68</v>
+        <v>331</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7891,13 +7814,11 @@
         <v>42</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -7926,10 +7847,10 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>42</v>
+        <v>335</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>64</v>
+        <v>336</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7937,7 +7858,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7957,22 +7878,20 @@
         <v>42</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>309</v>
+        <v>101</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -8032,10 +7951,10 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -8043,7 +7962,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8054,85 +7973,85 @@
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="X61" s="2"/>
+      <c r="Y61" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG61" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="Q61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE61" s="2"/>
-      <c r="AF61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG61" s="2"/>
       <c r="AH61" t="s" s="2">
         <v>42</v>
       </c>
@@ -8140,10 +8059,10 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -8151,7 +8070,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8171,20 +8090,22 @@
         <v>42</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="N62" t="s" s="2">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -8209,13 +8130,11 @@
         <v>42</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X62" s="2"/>
       <c r="Y62" t="s" s="2">
-        <v>42</v>
+        <v>357</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>42</v>
@@ -8244,10 +8163,10 @@
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8255,7 +8174,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8266,7 +8185,7 @@
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
@@ -8275,27 +8194,27 @@
         <v>42</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>336</v>
+        <v>42</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>42</v>
@@ -8336,22 +8255,26 @@
       <c r="AD63" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE63" s="2"/>
+      <c r="AE63" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG63" s="2"/>
+      <c r="AG63" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH63" t="s" s="2">
-        <v>337</v>
+        <v>42</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8359,7 +8282,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8370,7 +8293,7 @@
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>42</v>
@@ -8379,29 +8302,27 @@
         <v>42</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>104</v>
+        <v>368</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>344</v>
+        <v>42</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>42</v>
@@ -8442,11 +8363,15 @@
       <c r="AD64" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE64" s="2"/>
+      <c r="AE64" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG64" s="2"/>
+      <c r="AG64" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH64" t="s" s="2">
         <v>42</v>
       </c>
@@ -8454,10 +8379,10 @@
         <v>42</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8465,7 +8390,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8488,19 +8413,19 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>147</v>
+        <v>375</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8525,11 +8450,13 @@
         <v>42</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X65" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y65" t="s" s="2">
-        <v>351</v>
+        <v>42</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>42</v>
@@ -8546,22 +8473,26 @@
       <c r="AD65" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE65" s="2"/>
+      <c r="AE65" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG65" s="2"/>
+      <c r="AG65" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH65" t="s" s="2">
-        <v>352</v>
+        <v>42</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>125</v>
+        <v>381</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8569,11 +8500,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>355</v>
+        <v>42</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8592,18 +8523,16 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>356</v>
+        <v>102</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>357</v>
+        <v>153</v>
       </c>
       <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8627,11 +8556,13 @@
         <v>42</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>359</v>
+        <v>42</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>42</v>
@@ -8660,10 +8591,10 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>360</v>
+        <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>361</v>
+        <v>154</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8671,18 +8602,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>42</v>
@@ -8694,18 +8625,18 @@
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>363</v>
+        <v>92</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8764,10 +8695,10 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>366</v>
+        <v>42</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>367</v>
+        <v>154</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8775,43 +8706,41 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>42</v>
+        <v>386</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>369</v>
+        <v>125</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>42</v>
       </c>
@@ -8835,11 +8764,13 @@
         <v>42</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="X68" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y68" t="s" s="2">
-        <v>374</v>
+        <v>42</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>42</v>
@@ -8856,15 +8787,11 @@
       <c r="AD68" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE68" t="s" s="2">
-        <v>368</v>
-      </c>
+      <c r="AE68" s="2"/>
       <c r="AF68" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG68" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG68" s="2"/>
       <c r="AH68" t="s" s="2">
         <v>42</v>
       </c>
@@ -8872,10 +8799,10 @@
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>375</v>
+        <v>42</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>376</v>
+        <v>88</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8883,7 +8810,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8906,13 +8833,13 @@
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>53</v>
+        <v>389</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>62</v>
+        <v>390</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>63</v>
+        <v>391</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8968,16 +8895,16 @@
       </c>
       <c r="AG69" s="2"/>
       <c r="AH69" t="s" s="2">
-        <v>42</v>
+        <v>392</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>42</v>
+        <v>393</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>64</v>
+        <v>394</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -8985,18 +8912,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>42</v>
@@ -9008,17 +8935,15 @@
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>67</v>
+        <v>389</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>68</v>
+        <v>396</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>42</v>
@@ -9072,16 +8997,16 @@
       </c>
       <c r="AG70" s="2"/>
       <c r="AH70" t="s" s="2">
-        <v>42</v>
+        <v>392</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>42</v>
+        <v>393</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>64</v>
+        <v>398</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
@@ -9089,7 +9014,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9100,7 +9025,7 @@
         <v>40</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>42</v>
@@ -9109,22 +9034,22 @@
         <v>42</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>185</v>
+        <v>400</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>186</v>
+        <v>401</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>187</v>
+        <v>402</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>188</v>
+        <v>403</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>42</v>
@@ -9149,13 +9074,13 @@
         <v>42</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>42</v>
+        <v>404</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>42</v>
+        <v>405</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>42</v>
@@ -9184,10 +9109,10 @@
         <v>42</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>190</v>
+        <v>406</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>191</v>
+        <v>336</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>42</v>
@@ -9195,7 +9120,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9215,22 +9140,20 @@
         <v>42</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>134</v>
+        <v>408</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>231</v>
+        <v>409</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>234</v>
+        <v>411</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>42</v>
@@ -9290,10 +9213,10 @@
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>236</v>
+        <v>412</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>42</v>
@@ -9301,7 +9224,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9324,20 +9247,16 @@
         <v>42</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>42</v>
       </c>
@@ -9361,11 +9280,13 @@
         <v>42</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X73" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y73" t="s" s="2">
-        <v>386</v>
+        <v>42</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>42</v>
@@ -9394,10 +9315,10 @@
         <v>42</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>42</v>
@@ -9405,7 +9326,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9425,21 +9346,23 @@
         <v>42</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>42</v>
       </c>
@@ -9487,13 +9410,13 @@
         <v>42</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>42</v>
@@ -9502,10 +9425,10 @@
         <v>42</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>42</v>
@@ -9513,7 +9436,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9524,7 +9447,7 @@
         <v>40</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>42</v>
@@ -9536,17 +9459,15 @@
         <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>397</v>
+        <v>53</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>398</v>
+        <v>102</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>42</v>
@@ -9594,15 +9515,11 @@
       <c r="AD75" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE75" t="s" s="2">
-        <v>396</v>
-      </c>
+      <c r="AE75" s="2"/>
       <c r="AF75" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG75" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG75" s="2"/>
       <c r="AH75" t="s" s="2">
         <v>42</v>
       </c>
@@ -9610,10 +9527,10 @@
         <v>42</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>401</v>
+        <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>402</v>
+        <v>154</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>42</v>
@@ -9621,18 +9538,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>42</v>
@@ -9644,20 +9561,18 @@
         <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>404</v>
+        <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>405</v>
+        <v>92</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>406</v>
+        <v>156</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>42</v>
       </c>
@@ -9704,26 +9619,22 @@
       <c r="AD76" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE76" t="s" s="2">
-        <v>403</v>
-      </c>
+      <c r="AE76" s="2"/>
       <c r="AF76" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG76" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG76" s="2"/>
       <c r="AH76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>409</v>
+        <v>42</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>410</v>
+        <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>411</v>
+        <v>154</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>42</v>
@@ -9731,38 +9642,40 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>42</v>
+        <v>386</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -9825,7 +9738,7 @@
         <v>42</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>42</v>
@@ -9833,18 +9746,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>42</v>
@@ -9859,21 +9772,23 @@
         <v>67</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>68</v>
+        <v>428</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>69</v>
+        <v>429</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>42</v>
+        <v>432</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>42</v>
@@ -9891,13 +9806,13 @@
         <v>42</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>42</v>
+        <v>433</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>42</v>
+        <v>434</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>42</v>
@@ -9926,10 +9841,10 @@
         <v>42</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>64</v>
+        <v>435</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>42</v>
@@ -9937,40 +9852,38 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>415</v>
+        <v>42</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>67</v>
+        <v>437</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>156</v>
+        <v>438</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>42</v>
@@ -10033,7 +9946,7 @@
         <v>42</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>125</v>
+        <v>440</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>42</v>
@@ -10041,7 +9954,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10052,7 +9965,7 @@
         <v>40</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>42</v>
@@ -10061,19 +9974,23 @@
         <v>42</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>418</v>
+        <v>375</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>42</v>
       </c>
@@ -10120,22 +10037,26 @@
       <c r="AD80" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE80" s="2"/>
+      <c r="AE80" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG80" s="2"/>
+      <c r="AG80" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH80" t="s" s="2">
-        <v>421</v>
+        <v>42</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>42</v>
@@ -10143,7 +10064,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10166,13 +10087,13 @@
         <v>42</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>418</v>
+        <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>425</v>
+        <v>102</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>426</v>
+        <v>153</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10228,16 +10149,16 @@
       </c>
       <c r="AG81" s="2"/>
       <c r="AH81" t="s" s="2">
-        <v>421</v>
+        <v>42</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>422</v>
+        <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>427</v>
+        <v>154</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>42</v>
@@ -10245,18 +10166,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>42</v>
@@ -10268,20 +10189,18 @@
         <v>42</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>429</v>
+        <v>92</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>430</v>
+        <v>156</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>42</v>
       </c>
@@ -10305,13 +10224,13 @@
         <v>42</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>433</v>
+        <v>42</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>434</v>
+        <v>42</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>42</v>
@@ -10340,10 +10259,10 @@
         <v>42</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>435</v>
+        <v>42</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>361</v>
+        <v>154</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>42</v>
@@ -10351,41 +10270,41 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>42</v>
+        <v>386</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>437</v>
+        <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>438</v>
+        <v>125</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>42</v>
       </c>
@@ -10447,7 +10366,7 @@
         <v>42</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>441</v>
+        <v>88</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>42</v>
@@ -10455,7 +10374,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10463,7 +10382,7 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>51</v>
@@ -10475,19 +10394,21 @@
         <v>42</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+      <c r="N84" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>42</v>
       </c>
@@ -10511,13 +10432,13 @@
         <v>42</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>42</v>
@@ -10540,24 +10461,24 @@
       </c>
       <c r="AG84" s="2"/>
       <c r="AH84" t="s" s="2">
-        <v>42</v>
+        <v>453</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>422</v>
+        <v>217</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>445</v>
+        <v>218</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>42</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10568,7 +10489,7 @@
         <v>40</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>42</v>
@@ -10580,19 +10501,19 @@
         <v>52</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>42</v>
@@ -10640,15 +10561,11 @@
       <c r="AD85" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE85" t="s" s="2">
-        <v>446</v>
-      </c>
+      <c r="AE85" s="2"/>
       <c r="AF85" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG85" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG85" s="2"/>
       <c r="AH85" t="s" s="2">
         <v>42</v>
       </c>
@@ -10656,10 +10573,10 @@
         <v>42</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>42</v>
@@ -10667,7 +10584,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10690,16 +10607,20 @@
         <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>62</v>
+        <v>463</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>42</v>
       </c>
@@ -10723,13 +10644,11 @@
         <v>42</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X86" s="2"/>
       <c r="Y86" t="s" s="2">
-        <v>42</v>
+        <v>326</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>42</v>
@@ -10752,16 +10671,16 @@
       </c>
       <c r="AG86" s="2"/>
       <c r="AH86" t="s" s="2">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>64</v>
+        <v>328</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>42</v>
@@ -10769,11 +10688,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -10792,18 +10711,20 @@
         <v>42</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>67</v>
+        <v>375</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>68</v>
+        <v>466</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>69</v>
+        <v>377</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>42</v>
       </c>
@@ -10862,10 +10783,10 @@
         <v>42</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>42</v>
+        <v>381</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>64</v>
+        <v>382</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>42</v>
@@ -10873,40 +10794,38 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>415</v>
+        <v>42</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>42</v>
@@ -10969,7 +10888,7 @@
         <v>42</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>42</v>
@@ -10977,18 +10896,18 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>42</v>
@@ -11000,26 +10919,24 @@
         <v>42</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>457</v>
+        <v>92</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>458</v>
+        <v>156</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
-        <v>461</v>
+        <v>42</v>
       </c>
       <c r="R89" t="s" s="2">
         <v>42</v>
@@ -11037,13 +10954,13 @@
         <v>42</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>462</v>
+        <v>42</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>463</v>
+        <v>42</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>42</v>
@@ -11072,10 +10989,10 @@
         <v>42</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>464</v>
+        <v>154</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>42</v>
@@ -11083,38 +11000,40 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>42</v>
+        <v>386</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>466</v>
+        <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>467</v>
+        <v>125</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>42</v>
@@ -11177,7 +11096,7 @@
         <v>42</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>469</v>
+        <v>88</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>42</v>
@@ -11196,7 +11115,7 @@
         <v>40</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>42</v>
@@ -11205,23 +11124,19 @@
         <v>42</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>471</v>
+        <v>390</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>42</v>
       </c>
@@ -11268,26 +11183,22 @@
       <c r="AD91" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE91" t="s" s="2">
-        <v>470</v>
-      </c>
+      <c r="AE91" s="2"/>
       <c r="AF91" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG91" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG91" s="2"/>
       <c r="AH91" t="s" s="2">
-        <v>42</v>
+        <v>392</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>474</v>
+        <v>393</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>475</v>
+        <v>394</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>42</v>
@@ -11295,7 +11206,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11318,13 +11229,13 @@
         <v>42</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>53</v>
+        <v>389</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>62</v>
+        <v>396</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>63</v>
+        <v>397</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11380,16 +11291,16 @@
       </c>
       <c r="AG92" s="2"/>
       <c r="AH92" t="s" s="2">
-        <v>42</v>
+        <v>392</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>42</v>
+        <v>393</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>64</v>
+        <v>398</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>42</v>
@@ -11397,18 +11308,18 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>42</v>
@@ -11420,18 +11331,20 @@
         <v>42</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>68</v>
+        <v>400</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>69</v>
+        <v>401</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>42</v>
       </c>
@@ -11455,13 +11368,13 @@
         <v>42</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>42</v>
+        <v>404</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>42</v>
+        <v>405</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>42</v>
@@ -11490,10 +11403,10 @@
         <v>42</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>42</v>
+        <v>406</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>64</v>
+        <v>336</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>42</v>
@@ -11501,41 +11414,41 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>415</v>
+        <v>42</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>67</v>
+        <v>408</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>156</v>
+        <v>409</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>42</v>
       </c>
@@ -11597,7 +11510,7 @@
         <v>42</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>125</v>
+        <v>412</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>42</v>
@@ -11605,7 +11518,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11613,7 +11526,7 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>51</v>
@@ -11625,21 +11538,19 @@
         <v>42</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>480</v>
+        <v>414</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>481</v>
+        <v>415</v>
       </c>
       <c r="M95" s="2"/>
-      <c r="N95" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>42</v>
       </c>
@@ -11663,13 +11574,13 @@
         <v>42</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>42</v>
@@ -11692,1165 +11603,23 @@
       </c>
       <c r="AG95" s="2"/>
       <c r="AH95" t="s" s="2">
-        <v>482</v>
+        <v>42</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>243</v>
+        <v>393</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>244</v>
+        <v>416</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE96" s="2"/>
-      <c r="AF96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG96" s="2"/>
-      <c r="AH96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X97" s="2"/>
-      <c r="Y97" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE97" s="2"/>
-      <c r="AF97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG97" s="2"/>
-      <c r="AH97" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE98" s="2"/>
-      <c r="AF98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG98" s="2"/>
-      <c r="AH98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE99" s="2"/>
-      <c r="AF99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG99" s="2"/>
-      <c r="AH99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE100" s="2"/>
-      <c r="AF100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG100" s="2"/>
-      <c r="AH100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE101" s="2"/>
-      <c r="AF101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG101" s="2"/>
-      <c r="AH101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE102" s="2"/>
-      <c r="AF102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG102" s="2"/>
-      <c r="AH102" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE103" s="2"/>
-      <c r="AF103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG103" s="2"/>
-      <c r="AH103" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE104" s="2"/>
-      <c r="AF104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG104" s="2"/>
-      <c r="AH104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE105" s="2"/>
-      <c r="AF105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG105" s="2"/>
-      <c r="AH105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE106" s="2"/>
-      <c r="AF106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG106" s="2"/>
-      <c r="AH106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AL106" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL106">
+  <autoFilter ref="A1:AL95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12860,7 +11629,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI105">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/mcode/shr-core-BodyHeight.xlsx
+++ b/docs/mcode/shr-core-BodyHeight.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="436">
   <si>
     <t>Path</t>
   </si>
@@ -150,7 +150,7 @@
     <t>shr-core-BodyHeight</t>
   </si>
   <si>
-    <t>The distance from the sole to the crown of the head.</t>
+    <t>Data structure for recording the body height, defined as the distance from the sole to the crown of the head.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as lab reports, etc.</t>
@@ -884,132 +884,16 @@
 </t>
   </si>
   <si>
-    <t>cm</t>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyHeightLengthUnitsVS</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.valueQuantity.id</t>
-  </si>
-  <si>
-    <t>Observation.valueQuantity.extension</t>
-  </si>
-  <si>
-    <t>Observation.valueQuantity.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>Observation.valueQuantity.comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>This is labeled as "Is Modifier" because the comparator modifies the interpretation of the value significantly. If there is no comparator, then there is no modification of the value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>Observation.valueQuantity.unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>Observation.valueQuantity.system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://unitsofmeasure.org"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.valueQuantity.code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="cm"/&gt;</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1431,9 +1315,6 @@
   </si>
   <si>
     <t>Actual component result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
     <t>Normally, an observation will have either a value or a set of related observations. A few observations (e.g. Apgar score) may have both a value and related observations (for an Apgar score, the observations from which the measure is derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.   For boolean values use valueCodeableConcept and select codes from &lt;http://hl7.org/fhir/ValueSet/v2-0136&gt; (These "yes/no" concepts can be mapped to the display name "true/false" or other mutually exclusive terms that may be needed").  The element, Observation.value[x], has a variable name depending on the type as follows: valueQuantity, valueCodeableConcept, valueRatio, valueChoice, valuePeriod, valueSampleData, or valueString (The name format is "'value' + the type name" with a capital on the first letter of the type).</t>
@@ -1633,7 +1514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM95"/>
+  <dimension ref="A1:AM88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1665,7 +1546,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="52.97265625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="47.11328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.84375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -6820,7 +6701,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>51</v>
@@ -6841,7 +6722,7 @@
         <v>279</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6868,13 +6749,11 @@
         <v>42</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="X50" s="2"/>
       <c r="Y50" t="s" s="2">
-        <v>42</v>
+        <v>281</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>42</v>
@@ -6892,10 +6771,10 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>51</v>
@@ -6918,7 +6797,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6941,16 +6820,20 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
@@ -6974,13 +6857,11 @@
         <v>42</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X51" s="2"/>
       <c r="Y51" t="s" s="2">
-        <v>42</v>
+        <v>288</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>42</v>
@@ -7003,16 +6884,16 @@
       </c>
       <c r="AG51" s="2"/>
       <c r="AH51" t="s" s="2">
-        <v>42</v>
+        <v>289</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>154</v>
+        <v>290</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -7020,18 +6901,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>90</v>
+        <v>292</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -7043,18 +6924,18 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>92</v>
+        <v>293</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
       </c>
@@ -7078,13 +6959,11 @@
         <v>42</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>42</v>
+        <v>296</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>42</v>
@@ -7113,10 +6992,10 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>154</v>
+        <v>298</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -7124,7 +7003,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7144,22 +7023,20 @@
         <v>42</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7219,10 +7096,10 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7230,7 +7107,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7241,85 +7118,85 @@
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="X54" s="2"/>
+      <c r="Y54" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG54" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="Q54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE54" s="2"/>
-      <c r="AF54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG54" s="2"/>
       <c r="AH54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7327,10 +7204,10 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7338,7 +7215,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7358,20 +7235,22 @@
         <v>42</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
@@ -7396,13 +7275,11 @@
         <v>42</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>42</v>
+        <v>319</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>42</v>
@@ -7431,10 +7308,10 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7442,7 +7319,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7453,7 +7330,7 @@
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
@@ -7462,27 +7339,27 @@
         <v>42</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>62</v>
+        <v>323</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>42</v>
@@ -7523,22 +7400,26 @@
       <c r="AD56" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE56" s="2"/>
+      <c r="AE56" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG56" s="2"/>
+      <c r="AG56" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH56" t="s" s="2">
-        <v>312</v>
+        <v>42</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7546,7 +7427,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7557,7 +7438,7 @@
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
@@ -7566,29 +7447,27 @@
         <v>42</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>67</v>
+        <v>330</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>42</v>
@@ -7629,11 +7508,15 @@
       <c r="AD57" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE57" s="2"/>
+      <c r="AE57" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG57" s="2"/>
+      <c r="AG57" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7641,10 +7524,10 @@
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7652,7 +7535,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7675,19 +7558,19 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>115</v>
+        <v>337</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -7712,11 +7595,13 @@
         <v>42</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X58" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y58" t="s" s="2">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7733,22 +7618,26 @@
       <c r="AD58" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE58" s="2"/>
+      <c r="AE58" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG58" s="2"/>
+      <c r="AG58" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH58" t="s" s="2">
-        <v>327</v>
+        <v>42</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>88</v>
+        <v>343</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7756,11 +7645,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7779,18 +7668,16 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>331</v>
+        <v>102</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>332</v>
+        <v>153</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7814,11 +7701,13 @@
         <v>42</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>334</v>
+        <v>42</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -7847,10 +7736,10 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>335</v>
+        <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>336</v>
+        <v>154</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7858,18 +7747,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>42</v>
@@ -7881,18 +7770,18 @@
         <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>338</v>
+        <v>92</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>42</v>
       </c>
@@ -7951,10 +7840,10 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>341</v>
+        <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>342</v>
+        <v>154</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -7962,43 +7851,41 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>344</v>
+        <v>125</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>42</v>
       </c>
@@ -8022,11 +7909,13 @@
         <v>42</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="X61" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y61" t="s" s="2">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
@@ -8043,15 +7932,11 @@
       <c r="AD61" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE61" t="s" s="2">
-        <v>343</v>
-      </c>
+      <c r="AE61" s="2"/>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG61" s="2"/>
       <c r="AH61" t="s" s="2">
         <v>42</v>
       </c>
@@ -8059,10 +7944,10 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>350</v>
+        <v>42</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>351</v>
+        <v>88</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -8070,7 +7955,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8093,20 +7978,16 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>115</v>
+        <v>351</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>356</v>
-      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>42</v>
       </c>
@@ -8130,11 +8011,13 @@
         <v>42</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X62" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y62" t="s" s="2">
-        <v>357</v>
+        <v>42</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>42</v>
@@ -8157,16 +8040,16 @@
       </c>
       <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8174,7 +8057,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8185,7 +8068,7 @@
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
@@ -8197,17 +8080,15 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8255,26 +8136,22 @@
       <c r="AD63" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE63" t="s" s="2">
+      <c r="AE63" s="2"/>
+      <c r="AF63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG63" s="2"/>
+      <c r="AH63" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8282,7 +8159,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8293,7 +8170,7 @@
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>42</v>
@@ -8305,18 +8182,20 @@
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>368</v>
+        <v>115</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
       </c>
@@ -8340,13 +8219,13 @@
         <v>42</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>42</v>
+        <v>367</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>42</v>
@@ -8363,15 +8242,11 @@
       <c r="AD64" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE64" t="s" s="2">
-        <v>367</v>
-      </c>
+      <c r="AE64" s="2"/>
       <c r="AF64" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG64" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG64" s="2"/>
       <c r="AH64" t="s" s="2">
         <v>42</v>
       </c>
@@ -8379,10 +8254,10 @@
         <v>42</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8390,7 +8265,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8413,19 +8288,17 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8473,26 +8346,22 @@
       <c r="AD65" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE65" t="s" s="2">
+      <c r="AE65" s="2"/>
+      <c r="AF65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG65" s="2"/>
+      <c r="AH65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8500,7 +8369,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8523,13 +8392,13 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>102</v>
+        <v>376</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>153</v>
+        <v>377</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8591,10 +8460,10 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>42</v>
+        <v>355</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>154</v>
+        <v>378</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8602,18 +8471,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>42</v>
@@ -8622,21 +8491,23 @@
         <v>42</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>337</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>92</v>
+        <v>380</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>156</v>
+        <v>381</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8683,11 +8554,15 @@
       <c r="AD67" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE67" s="2"/>
+      <c r="AE67" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG67" s="2"/>
+      <c r="AG67" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8695,10 +8570,10 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>42</v>
+        <v>384</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>154</v>
+        <v>385</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8706,40 +8581,38 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>386</v>
+        <v>42</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -8802,7 +8675,7 @@
         <v>42</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8810,18 +8683,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>42</v>
@@ -8833,15 +8706,17 @@
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>389</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>390</v>
+        <v>92</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -8895,16 +8770,16 @@
       </c>
       <c r="AG69" s="2"/>
       <c r="AH69" t="s" s="2">
-        <v>392</v>
+        <v>42</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>393</v>
+        <v>42</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>394</v>
+        <v>154</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -8912,38 +8787,40 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>389</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>396</v>
+        <v>125</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>42</v>
@@ -8997,16 +8874,16 @@
       </c>
       <c r="AG70" s="2"/>
       <c r="AH70" t="s" s="2">
-        <v>392</v>
+        <v>42</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>393</v>
+        <v>42</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>398</v>
+        <v>88</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
@@ -9014,7 +8891,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9037,26 +8914,26 @@
         <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>42</v>
+        <v>394</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>42</v>
@@ -9074,13 +8951,13 @@
         <v>42</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>42</v>
@@ -9109,10 +8986,10 @@
         <v>42</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>406</v>
+        <v>88</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>336</v>
+        <v>397</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>42</v>
@@ -9120,7 +8997,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9128,7 +9005,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>51</v>
@@ -9143,18 +9020,16 @@
         <v>42</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>411</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>42</v>
       </c>
@@ -9216,7 +9091,7 @@
         <v>42</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>42</v>
@@ -9224,7 +9099,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9235,7 +9110,7 @@
         <v>40</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>42</v>
@@ -9244,19 +9119,23 @@
         <v>42</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>101</v>
+        <v>337</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>42</v>
       </c>
@@ -9303,11 +9182,15 @@
       <c r="AD73" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE73" s="2"/>
+      <c r="AE73" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG73" s="2"/>
+      <c r="AG73" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH73" t="s" s="2">
         <v>42</v>
       </c>
@@ -9315,10 +9198,10 @@
         <v>42</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>42</v>
@@ -9326,7 +9209,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9337,7 +9220,7 @@
         <v>40</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>42</v>
@@ -9346,23 +9229,19 @@
         <v>42</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>375</v>
+        <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>418</v>
+        <v>102</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>42</v>
       </c>
@@ -9409,15 +9288,11 @@
       <c r="AD74" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE74" t="s" s="2">
-        <v>417</v>
-      </c>
+      <c r="AE74" s="2"/>
       <c r="AF74" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG74" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG74" s="2"/>
       <c r="AH74" t="s" s="2">
         <v>42</v>
       </c>
@@ -9425,10 +9300,10 @@
         <v>42</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>422</v>
+        <v>42</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>423</v>
+        <v>154</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>42</v>
@@ -9436,18 +9311,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>42</v>
@@ -9459,15 +9334,17 @@
         <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>42</v>
@@ -9538,11 +9415,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>90</v>
+        <v>348</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9555,7 +9432,7 @@
         <v>42</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>42</v>
@@ -9564,10 +9441,10 @@
         <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>156</v>
+        <v>349</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>94</v>
@@ -9634,7 +9511,7 @@
         <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>42</v>
@@ -9642,41 +9519,41 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>386</v>
+        <v>42</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I77" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I77" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J77" t="s" s="2">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>125</v>
+        <v>413</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>42</v>
       </c>
@@ -9700,13 +9577,13 @@
         <v>42</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>42</v>
@@ -9729,24 +9606,24 @@
       </c>
       <c r="AG77" s="2"/>
       <c r="AH77" t="s" s="2">
-        <v>42</v>
+        <v>415</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>42</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9766,29 +9643,29 @@
         <v>42</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>67</v>
+        <v>417</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>429</v>
+        <v>280</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>432</v>
+        <v>42</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>42</v>
@@ -9806,13 +9683,13 @@
         <v>42</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>433</v>
+        <v>42</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>434</v>
+        <v>42</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>42</v>
@@ -9841,10 +9718,10 @@
         <v>42</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>88</v>
+        <v>421</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>42</v>
@@ -9852,7 +9729,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9860,7 +9737,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>51</v>
@@ -9875,16 +9752,20 @@
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>437</v>
+        <v>115</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>42</v>
       </c>
@@ -9908,13 +9789,11 @@
         <v>42</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
-        <v>42</v>
+        <v>288</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>42</v>
@@ -9937,16 +9816,16 @@
       </c>
       <c r="AG79" s="2"/>
       <c r="AH79" t="s" s="2">
-        <v>42</v>
+        <v>289</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>440</v>
+        <v>290</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>42</v>
@@ -9954,7 +9833,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9965,7 +9844,7 @@
         <v>40</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>42</v>
@@ -9974,22 +9853,22 @@
         <v>42</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>443</v>
+        <v>339</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>444</v>
+        <v>341</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>42</v>
@@ -10037,15 +9916,11 @@
       <c r="AD80" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE80" t="s" s="2">
-        <v>441</v>
-      </c>
+      <c r="AE80" s="2"/>
       <c r="AF80" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG80" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG80" s="2"/>
       <c r="AH80" t="s" s="2">
         <v>42</v>
       </c>
@@ -10053,10 +9928,10 @@
         <v>42</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>445</v>
+        <v>343</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>446</v>
+        <v>344</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>42</v>
@@ -10064,7 +9939,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10166,7 +10041,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10270,11 +10145,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10299,7 +10174,7 @@
         <v>125</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>94</v>
@@ -10374,7 +10249,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10382,7 +10257,7 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>51</v>
@@ -10394,21 +10269,19 @@
         <v>42</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>115</v>
+        <v>351</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>451</v>
+        <v>352</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>452</v>
+        <v>353</v>
       </c>
       <c r="M84" s="2"/>
-      <c r="N84" t="s" s="2">
-        <v>214</v>
-      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>42</v>
       </c>
@@ -10432,13 +10305,13 @@
         <v>42</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>42</v>
@@ -10461,24 +10334,24 @@
       </c>
       <c r="AG84" s="2"/>
       <c r="AH84" t="s" s="2">
-        <v>453</v>
+        <v>354</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>217</v>
+        <v>355</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>218</v>
+        <v>356</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>219</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10498,23 +10371,19 @@
         <v>42</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>455</v>
+        <v>351</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>456</v>
+        <v>358</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>42</v>
       </c>
@@ -10567,16 +10436,16 @@
       </c>
       <c r="AG85" s="2"/>
       <c r="AH85" t="s" s="2">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>460</v>
+        <v>355</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>461</v>
+        <v>360</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>42</v>
@@ -10584,7 +10453,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10610,16 +10479,16 @@
         <v>115</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>463</v>
+        <v>362</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>464</v>
+        <v>364</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>42</v>
@@ -10644,11 +10513,13 @@
         <v>42</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X86" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="Y86" t="s" s="2">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>42</v>
@@ -10671,16 +10542,16 @@
       </c>
       <c r="AG86" s="2"/>
       <c r="AH86" t="s" s="2">
-        <v>327</v>
+        <v>42</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>88</v>
+        <v>368</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>42</v>
@@ -10688,7 +10559,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10699,7 +10570,7 @@
         <v>40</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>42</v>
@@ -10711,19 +10582,17 @@
         <v>42</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>466</v>
+        <v>371</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>42</v>
@@ -10783,10 +10652,10 @@
         <v>42</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>381</v>
+        <v>42</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>42</v>
@@ -10794,7 +10663,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10817,13 +10686,13 @@
         <v>42</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>102</v>
+        <v>376</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>153</v>
+        <v>377</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10885,741 +10754,17 @@
         <v>42</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>42</v>
+        <v>355</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>154</v>
+        <v>378</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE89" s="2"/>
-      <c r="AF89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG89" s="2"/>
-      <c r="AH89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE90" s="2"/>
-      <c r="AF90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG90" s="2"/>
-      <c r="AH90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE91" s="2"/>
-      <c r="AF91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG91" s="2"/>
-      <c r="AH91" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE92" s="2"/>
-      <c r="AF92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG92" s="2"/>
-      <c r="AH92" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE93" s="2"/>
-      <c r="AF93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG93" s="2"/>
-      <c r="AH93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE94" s="2"/>
-      <c r="AF94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG94" s="2"/>
-      <c r="AH94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE95" s="2"/>
-      <c r="AF95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG95" s="2"/>
-      <c r="AH95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AL95" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL95">
+  <autoFilter ref="A1:AL88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11629,7 +10774,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI94">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
